--- a/Basic_Basket.xlsx
+++ b/Basic_Basket.xlsx
@@ -1,20 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c37ddf988a6f6bd/Documents/cpi-scrapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{58A26DA0-13E3-47AE-8767-89BF21D50765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3521A7C0-F063-45C4-B736-1739557067DA}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="8_{58A26DA0-13E3-47AE-8767-89BF21D50765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2858E55-4E0B-4ABE-9480-063A97AC1040}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6660" yWindow="4560" windowWidth="21600" windowHeight="11385" xr2:uid="{3C2EBCEA-2374-4F0F-BE04-2E7AAEB0636A}"/>
+    <workbookView xWindow="5340" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{3C2EBCEA-2374-4F0F-BE04-2E7AAEB0636A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic Food Basket" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Basic Food Basket'!$M$2:$M$6</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Basic Food Basket'!#REF!</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
   <si>
     <t>Manteca</t>
   </si>
@@ -78,9 +108,6 @@
     <t>3450cc</t>
   </si>
   <si>
-    <t>Gaseosas, jugos concentrados, soda</t>
-  </si>
-  <si>
     <t>Bebidsa alcohólicas</t>
   </si>
   <si>
@@ -235,14 +262,76 @@
   </si>
   <si>
     <t>9270g</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>almacen</t>
+  </si>
+  <si>
+    <t>quesos-y-fiambres</t>
+  </si>
+  <si>
+    <t>frutas-y-verduras</t>
+  </si>
+  <si>
+    <t>carnes</t>
+  </si>
+  <si>
+    <t>Prouct name</t>
+  </si>
+  <si>
+    <t>Jumbo</t>
+  </si>
+  <si>
+    <t>Gaseosa, jugo, soda</t>
+  </si>
+  <si>
+    <t>Coto</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>*Coto does the filter by itself</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Almacén</t>
+  </si>
+  <si>
+    <t>Carrefour</t>
+  </si>
+  <si>
+    <t>bebidas</t>
+  </si>
+  <si>
+    <t>frescos/carniceria</t>
+  </si>
+  <si>
+    <t>frescos/fiambreria</t>
+  </si>
+  <si>
+    <t>Frescos/Frutas%20y%20Verduras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -270,13 +359,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -290,15 +413,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF0F8742-FC54-4DAB-927D-4689205E2B80}" name="BFB" displayName="BFB" ref="A1:C31" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF0F8742-FC54-4DAB-927D-4689205E2B80}" name="BFB" displayName="BFB" ref="A1:C32" totalsRowCount="1">
   <autoFilter ref="A1:C31" xr:uid="{04DF5FCD-082A-48EF-AC02-B14B3F30ADB6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EF76C0C7-6B33-4DEE-9104-F0099C5516FC}" name="Componente"/>
+    <tableColumn id="1" xr3:uid="{EF76C0C7-6B33-4DEE-9104-F0099C5516FC}" name="Componente" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{ECCAF681-B1C0-47AE-ABEC-01C747870665}" name="Unidades"/>
     <tableColumn id="3" xr3:uid="{02780149-26CD-454B-94D9-0A34DFDC1131}" name="Productos que se incluyen"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E72A5C8-7B56-41F4-B893-B3F2C0D12652}" name="Table1" displayName="Table1" ref="A1:E31">
+  <autoFilter ref="A1:E31" xr:uid="{EA057959-E1F0-4C61-804A-BE5026946E34}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{86372102-BEA1-4C85-80EB-9564475E0B51}" name="Prouct name" totalsRowLabel="Total">
+      <calculatedColumnFormula>BFB[[#This Row],[Componente]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{FCFE324E-4760-40F2-B24B-1943DACB5D0A}" name="Jumbo" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A034949C-AA7B-496F-BC86-593570CFCB0C}" name="Coto"/>
+    <tableColumn id="4" xr3:uid="{33EF9EDD-2CCF-48C3-8CD0-FD2CFB18713C}" name="Dia"/>
+    <tableColumn id="5" xr3:uid="{401860B4-31FA-4523-B235-3286A9B2B10F}" name="Carrefour"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -601,17 +740,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB13776B-8409-49FF-9E22-54369CF0AC6D}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,7 +775,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -643,18 +783,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,154 +805,154 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -820,42 +960,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -866,31 +1006,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -898,7 +1039,516 @@
         <v>8</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8944D3E-9968-4CF9-9BD1-FFDB8F1C8D46}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Aceite</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Arroz</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Azucar</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Batata</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Bebidas no alcohólicas</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Bebidsa alcohólicas</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Café</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Carnes</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Condimentos</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Dulces</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Fiambes</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Fideos</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Frutas</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Galletitas de agua</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Galletitas dulces</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Harina de trigo</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Hortalizas</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Huevos</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Leche</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Legumbres secas</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Manteca</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Menundencias</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Otras harinas (maíz)</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Pan</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Papa</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Queso</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Sal Fina</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Vinagre</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Yerba</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>BFB[[#This Row],[Componente]]</f>
+        <v>Yogur</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="9xKQlvAZpl6N0jceMhawEupCbuXuv9F+Hu9E3HSXzHCFgJKI7m+asjWmhARPP2+dG644autuR9kYTheAJZPPog==" saltValue="yvR8YkJcDsD/i7kGU1bMeA==" spinCount="100000" sqref="B2:E31" name="Categories_Table_Edit"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
